--- a/biology/Botanique/Œillet_des_Chartreux/Œillet_des_Chartreux.xlsx
+++ b/biology/Botanique/Œillet_des_Chartreux/Œillet_des_Chartreux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C5%92illet_des_Chartreux</t>
+          <t>Œillet_des_Chartreux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dianthus carthusianorum
 L'œillet des Chartreux (Dianthus carthusianorum) est une espèce de plantes herbacées vivaces de la famille des Caryophyllaceae.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C5%92illet_des_Chartreux</t>
+          <t>Œillet_des_Chartreux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est vivace, dressée et raide, glabre, jusqu'à 50 cm de haut.
 Les feuilles sont étroites, engainantes à la base sur 15 mm.
-La floraison a lieu de mai à juillet[1]. Les fleurs sont de 20 mm de diamètre, sessiles, réunies en tête denses ; les pétales sont veinés de sombre.
+La floraison a lieu de mai à juillet. Les fleurs sont de 20 mm de diamètre, sessiles, réunies en tête denses ; les pétales sont veinés de sombre.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C5%92illet_des_Chartreux</t>
+          <t>Œillet_des_Chartreux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente dans les pelouses sèches, forêts claires, bords de haies[2].
-L'espèce est présente dans tout le bassin méditerranéen, sauf en Grèce et certaines îles[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente dans les pelouses sèches, forêts claires, bords de haies.
+L'espèce est présente dans tout le bassin méditerranéen, sauf en Grèce et certaines îles.
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C5%92illet_des_Chartreux</t>
+          <t>Œillet_des_Chartreux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dianthus montivagus Domin
 Dianthus tenuifolius Schur
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C5%92illet_des_Chartreux</t>
+          <t>Œillet_des_Chartreux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est cultivée comme plante ornementale.
 </t>
